--- a/fan_database/sanyo denki_full.xlsx
+++ b/fan_database/sanyo denki_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoGonçaloCouto\PycharmProjects\fan_selector\fan_database\fan_database_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoGonçaloCouto\PycharmProjects\fan_selector\fan_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2203E1A-BAF7-4874-81A2-273A8D71A1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7930D6F-DA61-4C90-A3FE-83388974BFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="-120" windowWidth="26910" windowHeight="16440" xr2:uid="{6B83A61E-00AF-40C2-B298-003C066BCD05}"/>
+    <workbookView xWindow="1950" yWindow="-110" windowWidth="36560" windowHeight="21820" xr2:uid="{6B83A61E-00AF-40C2-B298-003C066BCD05}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="366">
   <si>
     <t>Sensor type</t>
   </si>
@@ -1122,6 +1122,18 @@
   </si>
   <si>
     <t>9GV0812P1F03</t>
+  </si>
+  <si>
+    <t>Wide Temperature Fan</t>
+  </si>
+  <si>
+    <t>9GT1224P1S001</t>
+  </si>
+  <si>
+    <t>40000/85℃ （162000/40℃）</t>
+  </si>
+  <si>
+    <t>9GT0924P1M001</t>
   </si>
 </sst>
 </file>
@@ -1543,34 +1555,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52210E67-7636-4641-83DA-D42ADE7BB37E}">
-  <dimension ref="A1:R318"/>
+  <dimension ref="A1:R320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H305" sqref="H305"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O320" sqref="O320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="36.85546875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="13.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="26.1796875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="36.81640625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="7" customWidth="1"/>
+    <col min="9" max="10" width="13.7265625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.1796875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="12.26953125" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>339</v>
       </c>
@@ -1626,7 +1638,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>340</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>340</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>340</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>340</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>340</v>
       </c>
@@ -1905,7 +1917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>340</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>340</v>
       </c>
@@ -2015,7 +2027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>340</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>340</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>340</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>340</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>340</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>340</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>340</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>340</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>340</v>
       </c>
@@ -2510,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>340</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>340</v>
       </c>
@@ -2620,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>340</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>340</v>
       </c>
@@ -2734,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>340</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>340</v>
       </c>
@@ -2844,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>340</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>340</v>
       </c>
@@ -2954,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>340</v>
       </c>
@@ -3009,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>340</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>340</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>340</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>340</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>340</v>
       </c>
@@ -3284,7 +3296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>340</v>
       </c>
@@ -3339,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>340</v>
       </c>
@@ -3394,7 +3406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>340</v>
       </c>
@@ -3449,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>340</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>340</v>
       </c>
@@ -3559,7 +3571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>340</v>
       </c>
@@ -3614,7 +3626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>340</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>340</v>
       </c>
@@ -3724,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>340</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>340</v>
       </c>
@@ -3834,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>340</v>
       </c>
@@ -3889,7 +3901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>340</v>
       </c>
@@ -3944,7 +3956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>340</v>
       </c>
@@ -3999,7 +4011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>340</v>
       </c>
@@ -4054,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>340</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>340</v>
       </c>
@@ -4164,7 +4176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>340</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>340</v>
       </c>
@@ -4274,7 +4286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>340</v>
       </c>
@@ -4329,7 +4341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>340</v>
       </c>
@@ -4384,7 +4396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>340</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>340</v>
       </c>
@@ -4494,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>340</v>
       </c>
@@ -4549,7 +4561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>340</v>
       </c>
@@ -4604,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>340</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>340</v>
       </c>
@@ -4714,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>340</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>340</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>340</v>
       </c>
@@ -4883,7 +4895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>340</v>
       </c>
@@ -4938,7 +4950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>340</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>340</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>340</v>
       </c>
@@ -5103,7 +5115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>340</v>
       </c>
@@ -5158,7 +5170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>340</v>
       </c>
@@ -5213,7 +5225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>340</v>
       </c>
@@ -5268,7 +5280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>340</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>340</v>
       </c>
@@ -5378,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>340</v>
       </c>
@@ -5433,7 +5445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>340</v>
       </c>
@@ -5488,7 +5500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>340</v>
       </c>
@@ -5543,7 +5555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>340</v>
       </c>
@@ -5598,7 +5610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>340</v>
       </c>
@@ -5653,7 +5665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>340</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>340</v>
       </c>
@@ -5763,7 +5775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>340</v>
       </c>
@@ -5818,7 +5830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>340</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>340</v>
       </c>
@@ -5928,7 +5940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>340</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>340</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>340</v>
       </c>
@@ -6093,7 +6105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>340</v>
       </c>
@@ -6148,7 +6160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>340</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>340</v>
       </c>
@@ -6258,7 +6270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>340</v>
       </c>
@@ -6313,7 +6325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>340</v>
       </c>
@@ -6368,7 +6380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>340</v>
       </c>
@@ -6423,7 +6435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>340</v>
       </c>
@@ -6478,7 +6490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>340</v>
       </c>
@@ -6533,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>340</v>
       </c>
@@ -6588,7 +6600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>340</v>
       </c>
@@ -6643,7 +6655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>340</v>
       </c>
@@ -6698,7 +6710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>340</v>
       </c>
@@ -6753,7 +6765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>340</v>
       </c>
@@ -6810,7 +6822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>340</v>
       </c>
@@ -6867,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>340</v>
       </c>
@@ -6924,7 +6936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>340</v>
       </c>
@@ -6979,7 +6991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>340</v>
       </c>
@@ -7034,7 +7046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>340</v>
       </c>
@@ -7089,7 +7101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>340</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>340</v>
       </c>
@@ -7199,7 +7211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>340</v>
       </c>
@@ -7254,7 +7266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>340</v>
       </c>
@@ -7309,7 +7321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>340</v>
       </c>
@@ -7364,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>340</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>340</v>
       </c>
@@ -7474,7 +7486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>340</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>340</v>
       </c>
@@ -7586,7 +7598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>340</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>340</v>
       </c>
@@ -7696,7 +7708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>340</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>340</v>
       </c>
@@ -7806,7 +7818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>340</v>
       </c>
@@ -7861,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>340</v>
       </c>
@@ -7916,7 +7928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>340</v>
       </c>
@@ -7971,7 +7983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>340</v>
       </c>
@@ -8026,7 +8038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>340</v>
       </c>
@@ -8081,7 +8093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>340</v>
       </c>
@@ -8136,7 +8148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>340</v>
       </c>
@@ -8191,7 +8203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>340</v>
       </c>
@@ -8244,7 +8256,7 @@
       </c>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>340</v>
       </c>
@@ -8299,7 +8311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>340</v>
       </c>
@@ -8354,7 +8366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>340</v>
       </c>
@@ -8409,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>340</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>340</v>
       </c>
@@ -8519,7 +8531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>340</v>
       </c>
@@ -8574,7 +8586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>340</v>
       </c>
@@ -8631,7 +8643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>340</v>
       </c>
@@ -8688,7 +8700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>340</v>
       </c>
@@ -8745,7 +8757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>340</v>
       </c>
@@ -8802,7 +8814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>340</v>
       </c>
@@ -8859,7 +8871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>340</v>
       </c>
@@ -8916,7 +8928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>340</v>
       </c>
@@ -8973,7 +8985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>340</v>
       </c>
@@ -9030,7 +9042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>340</v>
       </c>
@@ -9085,7 +9097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>340</v>
       </c>
@@ -9140,7 +9152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>340</v>
       </c>
@@ -9195,7 +9207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>340</v>
       </c>
@@ -9250,7 +9262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>340</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>340</v>
       </c>
@@ -9360,7 +9372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>340</v>
       </c>
@@ -9415,7 +9427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>340</v>
       </c>
@@ -9470,7 +9482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>340</v>
       </c>
@@ -9525,7 +9537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>340</v>
       </c>
@@ -9580,7 +9592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>340</v>
       </c>
@@ -9635,7 +9647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>340</v>
       </c>
@@ -9690,7 +9702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>340</v>
       </c>
@@ -9745,7 +9757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="8" t="s">
         <v>340</v>
       </c>
@@ -9800,7 +9812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>340</v>
       </c>
@@ -9855,7 +9867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="8" t="s">
         <v>340</v>
       </c>
@@ -9910,7 +9922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>340</v>
       </c>
@@ -9965,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>340</v>
       </c>
@@ -10020,7 +10032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>340</v>
       </c>
@@ -10075,7 +10087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>340</v>
       </c>
@@ -10130,7 +10142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>340</v>
       </c>
@@ -10185,7 +10197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="8" t="s">
         <v>340</v>
       </c>
@@ -10240,7 +10252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>340</v>
       </c>
@@ -10295,7 +10307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>340</v>
       </c>
@@ -10350,7 +10362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>340</v>
       </c>
@@ -10405,7 +10417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="8" t="s">
         <v>340</v>
       </c>
@@ -10462,7 +10474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="8" t="s">
         <v>340</v>
       </c>
@@ -10519,7 +10531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163" s="8" t="s">
         <v>340</v>
       </c>
@@ -10574,7 +10586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164" s="8" t="s">
         <v>340</v>
       </c>
@@ -10629,7 +10641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="8" t="s">
         <v>340</v>
       </c>
@@ -10684,7 +10696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>340</v>
       </c>
@@ -10739,7 +10751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="8" t="s">
         <v>340</v>
       </c>
@@ -10794,7 +10806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="8" t="s">
         <v>340</v>
       </c>
@@ -10849,7 +10861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="8" t="s">
         <v>340</v>
       </c>
@@ -10904,7 +10916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>340</v>
       </c>
@@ -10959,7 +10971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="8" t="s">
         <v>340</v>
       </c>
@@ -11014,7 +11026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="8" t="s">
         <v>340</v>
       </c>
@@ -11069,7 +11081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
         <v>340</v>
       </c>
@@ -11124,7 +11136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
         <v>340</v>
       </c>
@@ -11179,7 +11191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>340</v>
       </c>
@@ -11234,7 +11246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="8" t="s">
         <v>340</v>
       </c>
@@ -11289,7 +11301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="8" t="s">
         <v>340</v>
       </c>
@@ -11344,7 +11356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
         <v>340</v>
       </c>
@@ -11399,7 +11411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>340</v>
       </c>
@@ -11456,7 +11468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>340</v>
       </c>
@@ -11513,7 +11525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="8" t="s">
         <v>340</v>
       </c>
@@ -11570,7 +11582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="8" t="s">
         <v>340</v>
       </c>
@@ -11627,7 +11639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="8" t="s">
         <v>340</v>
       </c>
@@ -11684,7 +11696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="8" t="s">
         <v>340</v>
       </c>
@@ -11741,7 +11753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185" s="8" t="s">
         <v>340</v>
       </c>
@@ -11796,7 +11808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186" s="8" t="s">
         <v>340</v>
       </c>
@@ -11851,7 +11863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="8" t="s">
         <v>340</v>
       </c>
@@ -11906,7 +11918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="8" t="s">
         <v>340</v>
       </c>
@@ -11961,7 +11973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="8" t="s">
         <v>340</v>
       </c>
@@ -12016,7 +12028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>340</v>
       </c>
@@ -12071,7 +12083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>340</v>
       </c>
@@ -12126,7 +12138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="8" t="s">
         <v>340</v>
       </c>
@@ -12181,7 +12193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="8" t="s">
         <v>340</v>
       </c>
@@ -12236,7 +12248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
         <v>340</v>
       </c>
@@ -12291,7 +12303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>340</v>
       </c>
@@ -12346,7 +12358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>340</v>
       </c>
@@ -12399,7 +12411,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="3"/>
     </row>
-    <row r="197" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
         <v>340</v>
       </c>
@@ -12454,7 +12466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="8" t="s">
         <v>340</v>
       </c>
@@ -12509,7 +12521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="8" t="s">
         <v>340</v>
       </c>
@@ -12564,7 +12576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="8" t="s">
         <v>340</v>
       </c>
@@ -12619,7 +12631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201" s="8" t="s">
         <v>340</v>
       </c>
@@ -12674,7 +12686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202" s="8" t="s">
         <v>340</v>
       </c>
@@ -12729,7 +12741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="8" t="s">
         <v>340</v>
       </c>
@@ -12784,7 +12796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="8" t="s">
         <v>340</v>
       </c>
@@ -12839,7 +12851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>340</v>
       </c>
@@ -12894,7 +12906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="8" t="s">
         <v>340</v>
       </c>
@@ -12949,7 +12961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="8" t="s">
         <v>340</v>
       </c>
@@ -13004,7 +13016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="8" t="s">
         <v>340</v>
       </c>
@@ -13059,7 +13071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
         <v>340</v>
       </c>
@@ -13116,7 +13128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" s="8" t="s">
         <v>340</v>
       </c>
@@ -13173,7 +13185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="8" t="s">
         <v>340</v>
       </c>
@@ -13228,7 +13240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="8" t="s">
         <v>340</v>
       </c>
@@ -13283,7 +13295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="8" t="s">
         <v>340</v>
       </c>
@@ -13338,7 +13350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="8" t="s">
         <v>340</v>
       </c>
@@ -13393,7 +13405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>340</v>
       </c>
@@ -13448,7 +13460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
         <v>340</v>
       </c>
@@ -13503,7 +13515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" s="8" t="s">
         <v>340</v>
       </c>
@@ -13558,7 +13570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" s="8" t="s">
         <v>340</v>
       </c>
@@ -13613,7 +13625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="8" t="s">
         <v>340</v>
       </c>
@@ -13668,7 +13680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="8" t="s">
         <v>340</v>
       </c>
@@ -13723,7 +13735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="8" t="s">
         <v>340</v>
       </c>
@@ -13778,7 +13790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="8" t="s">
         <v>340</v>
       </c>
@@ -13833,7 +13845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
         <v>340</v>
       </c>
@@ -13888,7 +13900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="8" t="s">
         <v>340</v>
       </c>
@@ -13943,7 +13955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>340</v>
       </c>
@@ -13998,7 +14010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>340</v>
       </c>
@@ -14053,7 +14065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>340</v>
       </c>
@@ -14110,7 +14122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>340</v>
       </c>
@@ -14167,7 +14179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="8" t="s">
         <v>340</v>
       </c>
@@ -14224,7 +14236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="8" t="s">
         <v>340</v>
       </c>
@@ -14279,7 +14291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="8" t="s">
         <v>340</v>
       </c>
@@ -14334,7 +14346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="8" t="s">
         <v>340</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="8" t="s">
         <v>340</v>
       </c>
@@ -14444,7 +14456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="8" t="s">
         <v>340</v>
       </c>
@@ -14499,7 +14511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>340</v>
       </c>
@@ -14554,7 +14566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="8" t="s">
         <v>340</v>
       </c>
@@ -14609,7 +14621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="8" t="s">
         <v>340</v>
       </c>
@@ -14664,7 +14676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A238" s="8" t="s">
         <v>340</v>
       </c>
@@ -14719,7 +14731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A239" s="8" t="s">
         <v>340</v>
       </c>
@@ -14774,7 +14786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A240" s="8" t="s">
         <v>340</v>
       </c>
@@ -14829,7 +14841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="8" t="s">
         <v>340</v>
       </c>
@@ -14884,7 +14896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A242" s="8" t="s">
         <v>340</v>
       </c>
@@ -14941,7 +14953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A243" s="8" t="s">
         <v>340</v>
       </c>
@@ -14998,7 +15010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A244" s="8" t="s">
         <v>340</v>
       </c>
@@ -15055,7 +15067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>340</v>
       </c>
@@ -15110,7 +15122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" s="8" t="s">
         <v>340</v>
       </c>
@@ -15165,7 +15177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" s="8" t="s">
         <v>340</v>
       </c>
@@ -15220,7 +15232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A248" s="8" t="s">
         <v>340</v>
       </c>
@@ -15275,7 +15287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="8" t="s">
         <v>340</v>
       </c>
@@ -15330,7 +15342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="8" t="s">
         <v>340</v>
       </c>
@@ -15385,7 +15397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="8" t="s">
         <v>340</v>
       </c>
@@ -15440,7 +15452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="8" t="s">
         <v>340</v>
       </c>
@@ -15495,7 +15507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="8" t="s">
         <v>340</v>
       </c>
@@ -15550,7 +15562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="8" t="s">
         <v>340</v>
       </c>
@@ -15605,7 +15617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>340</v>
       </c>
@@ -15660,7 +15672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="8" t="s">
         <v>340</v>
       </c>
@@ -15715,7 +15727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="8" t="s">
         <v>340</v>
       </c>
@@ -15770,7 +15782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="8" t="s">
         <v>340</v>
       </c>
@@ -15825,7 +15837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="8" t="s">
         <v>340</v>
       </c>
@@ -15880,7 +15892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="8" t="s">
         <v>340</v>
       </c>
@@ -15935,7 +15947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="8" t="s">
         <v>340</v>
       </c>
@@ -15992,7 +16004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="8" t="s">
         <v>340</v>
       </c>
@@ -16049,7 +16061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
         <v>340</v>
       </c>
@@ -16104,7 +16116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="8" t="s">
         <v>340</v>
       </c>
@@ -16159,7 +16171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="8" t="s">
         <v>340</v>
       </c>
@@ -16214,7 +16226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="8" t="s">
         <v>340</v>
       </c>
@@ -16269,7 +16281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="8" t="s">
         <v>340</v>
       </c>
@@ -16324,7 +16336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="8" t="s">
         <v>340</v>
       </c>
@@ -16379,7 +16391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="8" t="s">
         <v>340</v>
       </c>
@@ -16434,7 +16446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
         <v>340</v>
       </c>
@@ -16491,7 +16503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271" s="8" t="s">
         <v>340</v>
       </c>
@@ -16548,7 +16560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272" s="8" t="s">
         <v>340</v>
       </c>
@@ -16605,7 +16617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273" s="8" t="s">
         <v>340</v>
       </c>
@@ -16660,7 +16672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="8" t="s">
         <v>340</v>
       </c>
@@ -16715,7 +16727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="8" t="s">
         <v>340</v>
       </c>
@@ -16770,7 +16782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="8" t="s">
         <v>340</v>
       </c>
@@ -16825,7 +16837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="8" t="s">
         <v>340</v>
       </c>
@@ -16880,7 +16892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="8" t="s">
         <v>340</v>
       </c>
@@ -16935,7 +16947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="8" t="s">
         <v>340</v>
       </c>
@@ -16990,7 +17002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="8" t="s">
         <v>340</v>
       </c>
@@ -17047,7 +17059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281" s="8" t="s">
         <v>340</v>
       </c>
@@ -17102,7 +17114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282" s="8" t="s">
         <v>340</v>
       </c>
@@ -17157,7 +17169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="8" t="s">
         <v>340</v>
       </c>
@@ -17212,7 +17224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="8" t="s">
         <v>340</v>
       </c>
@@ -17267,7 +17279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="8" t="s">
         <v>340</v>
       </c>
@@ -17322,7 +17334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="8" t="s">
         <v>340</v>
       </c>
@@ -17377,7 +17389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="8" t="s">
         <v>340</v>
       </c>
@@ -17432,7 +17444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="8" t="s">
         <v>340</v>
       </c>
@@ -17487,7 +17499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="8" t="s">
         <v>340</v>
       </c>
@@ -17542,7 +17554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="8" t="s">
         <v>340</v>
       </c>
@@ -17597,7 +17609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291" s="8" t="s">
         <v>340</v>
       </c>
@@ -17652,7 +17664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292" s="8" t="s">
         <v>340</v>
       </c>
@@ -17707,7 +17719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293" s="8" t="s">
         <v>340</v>
       </c>
@@ -17762,7 +17774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294" s="8" t="s">
         <v>340</v>
       </c>
@@ -17817,7 +17829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A295" s="8" t="s">
         <v>340</v>
       </c>
@@ -17872,7 +17884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="8" t="s">
         <v>340</v>
       </c>
@@ -17927,7 +17939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="8" t="s">
         <v>340</v>
       </c>
@@ -17982,7 +17994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="8" t="s">
         <v>340</v>
       </c>
@@ -18037,7 +18049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A299" s="8" t="s">
         <v>340</v>
       </c>
@@ -18092,7 +18104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
         <v>340</v>
       </c>
@@ -18149,7 +18161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301" s="8" t="s">
         <v>340</v>
       </c>
@@ -18204,7 +18216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="8" t="s">
         <v>340</v>
       </c>
@@ -18259,7 +18271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="8" t="s">
         <v>340</v>
       </c>
@@ -18316,7 +18328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304" s="8" t="s">
         <v>340</v>
       </c>
@@ -18371,7 +18383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A305" s="8" t="s">
         <v>340</v>
       </c>
@@ -18426,7 +18438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A306" s="8" t="s">
         <v>340</v>
       </c>
@@ -18481,7 +18493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A307" s="8" t="s">
         <v>340</v>
       </c>
@@ -18536,7 +18548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="8" t="s">
         <v>340</v>
       </c>
@@ -18591,7 +18603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="8" t="s">
         <v>340</v>
       </c>
@@ -18646,7 +18658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>340</v>
       </c>
@@ -18702,7 +18714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A311" s="8" t="s">
         <v>340</v>
       </c>
@@ -18758,7 +18770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A312" s="8" t="s">
         <v>340</v>
       </c>
@@ -18814,7 +18826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A313" s="8" t="s">
         <v>340</v>
       </c>
@@ -18870,7 +18882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A314" s="8" t="s">
         <v>340</v>
       </c>
@@ -18926,7 +18938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A315" s="8" t="s">
         <v>340</v>
       </c>
@@ -18982,7 +18994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A316" s="8" t="s">
         <v>340</v>
       </c>
@@ -19038,7 +19050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A317" s="8" t="s">
         <v>340</v>
       </c>
@@ -19094,7 +19106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A318" s="8" t="s">
         <v>340</v>
       </c>
@@ -19147,6 +19159,118 @@
         <v>5</v>
       </c>
       <c r="R318" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A319" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D319" s="7">
+        <v>120</v>
+      </c>
+      <c r="E319" s="7">
+        <f t="shared" ref="E319:E320" si="8">+D319</f>
+        <v>120</v>
+      </c>
+      <c r="F319" s="7">
+        <v>38</v>
+      </c>
+      <c r="G319" s="7">
+        <v>24</v>
+      </c>
+      <c r="H319" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I319" s="7">
+        <v>26.4</v>
+      </c>
+      <c r="J319" s="7">
+        <v>5600</v>
+      </c>
+      <c r="K319" s="7">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="L319" s="7">
+        <v>270</v>
+      </c>
+      <c r="M319" s="7">
+        <v>58</v>
+      </c>
+      <c r="N319" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="O319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P319" s="8"/>
+      <c r="Q319" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R319" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A320" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D320" s="7">
+        <v>92</v>
+      </c>
+      <c r="E320" s="7">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="F320" s="7">
+        <v>38</v>
+      </c>
+      <c r="G320" s="7">
+        <v>24</v>
+      </c>
+      <c r="H320" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="I320" s="7">
+        <v>18</v>
+      </c>
+      <c r="J320" s="7">
+        <v>8100</v>
+      </c>
+      <c r="K320" s="7">
+        <f>3.3*60</f>
+        <v>198</v>
+      </c>
+      <c r="L320" s="7">
+        <v>315</v>
+      </c>
+      <c r="M320" s="7">
+        <v>58</v>
+      </c>
+      <c r="N320" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="O320" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P320" s="8"/>
+      <c r="Q320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R320" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -19470,6 +19594,7 @@
     <hyperlink ref="C316" r:id="rId315" display="https://products.sanyodenki.com/en/sanace/dc/dc-fan/9GA0824P4J001/" xr:uid="{BAD5BA03-0B6B-4330-9752-D5A6B7641466}"/>
     <hyperlink ref="C317" r:id="rId316" display="https://products.sanyodenki.com/en/sanace/dc/dc-fan/9G1224G401/" xr:uid="{7E8F3156-0BE2-4174-BF23-699FFF2A8BEE}"/>
     <hyperlink ref="C318" r:id="rId317" display="https://products.sanyodenki.com/en/sanace/dc/dc-fan/9GV0812P1F03/" xr:uid="{9D0F97C2-F54C-4CEE-ADF6-6963684246FC}"/>
+    <hyperlink ref="C319" r:id="rId318" display="https://products.sanyodenki.com/en/sanace/dc/dc-fan/9GV0812P1F03/" xr:uid="{26D4979B-02A1-4F4F-A598-CD903E3B4193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fan_database/sanyo denki_full.xlsx
+++ b/fan_database/sanyo denki_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoGonçaloCouto\PycharmProjects\fan_selector\fan_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7930D6F-DA61-4C90-A3FE-83388974BFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D27901-F2BB-41D7-A2FA-BA2F2D1B5DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="-110" windowWidth="36560" windowHeight="21820" xr2:uid="{6B83A61E-00AF-40C2-B298-003C066BCD05}"/>
+    <workbookView xWindow="1650" yWindow="-110" windowWidth="36860" windowHeight="21820" xr2:uid="{6B83A61E-00AF-40C2-B298-003C066BCD05}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O320" sqref="O320"/>
+      <selection pane="bottomLeft" activeCell="K332" sqref="K332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19597,5 +19597,6 @@
     <hyperlink ref="C319" r:id="rId318" display="https://products.sanyodenki.com/en/sanace/dc/dc-fan/9GV0812P1F03/" xr:uid="{26D4979B-02A1-4F4F-A598-CD903E3B4193}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId319"/>
 </worksheet>
 </file>